--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FD5864-2265-401F-A465-D27E11ECBD72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E71892-657A-4768-935C-15D9B79C8433}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23115" yWindow="5565" windowWidth="10335" windowHeight="6975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E71892-657A-4768-935C-15D9B79C8433}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B19C2-370A-4DFC-A6E5-D54D73A57506}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23115" yWindow="5565" windowWidth="10335" windowHeight="6975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A98AE9F-3D71-47A8-85D4-6B35DB74CA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD09AF5-843D-4962-9A05-B5930520CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28020" yWindow="-1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>User</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>VPN</t>
-  </si>
-  <si>
     <t>remoto.staff01</t>
   </si>
   <si>
@@ -52,6 +49,27 @@
   </si>
   <si>
     <t>CAEX</t>
+  </si>
+  <si>
+    <t>VPN 1</t>
+  </si>
+  <si>
+    <t>VPN 2</t>
+  </si>
+  <si>
+    <t>diego.mera</t>
+  </si>
+  <si>
+    <t>XG-Caex*2021*</t>
+  </si>
+  <si>
+    <t>Maquina de producción</t>
+  </si>
+  <si>
+    <t>monica.lozano</t>
+  </si>
+  <si>
+    <t>Caex2022*/</t>
   </si>
 </sst>
 </file>
@@ -395,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,32 +442,54 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>10574</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>1003818321</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{905FF103-AC4C-4443-B2F1-3EDEDAD71E40}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{905FF103-AC4C-4443-B2F1-3EDEDAD71E40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaliExpress\Credenciales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B19C2-370A-4DFC-A6E5-D54D73A57506}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA001DC8-3C12-4BE5-9D35-4B281ECD706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>User</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CAEX</t>
+  </si>
+  <si>
+    <t>1003818321M</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,8 +440,8 @@
       <c r="A3" s="2">
         <v>10574</v>
       </c>
-      <c r="B3" s="2">
-        <v>1003818321</v>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>

--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Credenciales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA001DC8-3C12-4BE5-9D35-4B281ECD706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6325C0-9DEA-4199-9405-F6E569A23093}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6325C0-9DEA-4199-9405-F6E569A23093}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B82B7D-B064-4ED9-83B3-A136510BDDBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>

--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaliExpress\Credenciales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6325C0-9DEA-4199-9405-F6E569A23093}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD0F98B-9CA5-442C-A80D-771ED9DCB719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>
@@ -400,12 +400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>

--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD0F98B-9CA5-442C-A80D-771ED9DCB719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264544F-7D2F-411F-AF8C-980DCB31D2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>User</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>1003818321M</t>
+  </si>
+  <si>
+    <t>rpa@caex.com.co</t>
+  </si>
+  <si>
+    <t>Caex204457/*@</t>
   </si>
 </sst>
 </file>
@@ -112,11 +118,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -398,16 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -451,11 +459,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{905FF103-AC4C-4443-B2F1-3EDEDAD71E40}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{5D2E8F0E-E087-44C0-A312-D4C19080BB0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B264544F-7D2F-411F-AF8C-980DCB31D2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0801DBEC-54A9-4912-AD21-35DB2756F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>User</t>
   </si>
@@ -61,13 +61,34 @@
   </si>
   <si>
     <t>Caex204457/*@</t>
+  </si>
+  <si>
+    <t>Caex2022*.</t>
+  </si>
+  <si>
+    <t>monica.lozano</t>
+  </si>
+  <si>
+    <t>link pajarito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://132.147.170.110:8080/Consulta_Portados.aspx </t>
+  </si>
+  <si>
+    <t>Remoto</t>
+  </si>
+  <si>
+    <t>192.168.0.11</t>
+  </si>
+  <si>
+    <t>Caex2022*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +117,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,13 +145,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -406,17 +437,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -467,12 +498,49 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{905FF103-AC4C-4443-B2F1-3EDEDAD71E40}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{5D2E8F0E-E087-44C0-A312-D4C19080BB0F}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{7E605ECA-FE27-4006-8E28-5B824EA94B47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0801DBEC-54A9-4912-AD21-35DB2756F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40D5337-DB5E-4FAB-9501-43A848EDC0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>User</t>
   </si>
@@ -60,9 +60,6 @@
     <t>rpa@caex.com.co</t>
   </si>
   <si>
-    <t>Caex204457/*@</t>
-  </si>
-  <si>
     <t>Caex2022*.</t>
   </si>
   <si>
@@ -82,6 +79,21 @@
   </si>
   <si>
     <t>Caex2022*</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>10.206.138.20</t>
+  </si>
+  <si>
+    <t>Caex2020*</t>
+  </si>
+  <si>
+    <t>callcx\monica.lozano</t>
+  </si>
+  <si>
+    <t>CaliEx2022*</t>
   </si>
 </sst>
 </file>
@@ -440,12 +452,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
@@ -495,15 +507,15 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -511,24 +523,38 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">

--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40D5337-DB5E-4FAB-9501-43A848EDC0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1A1A70-9D41-4DEA-B180-7C3FC38C488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>User</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Caex2022*</t>
   </si>
   <si>
-    <t>Servidor</t>
-  </si>
-  <si>
     <t>10.206.138.20</t>
   </si>
   <si>
@@ -94,6 +91,15 @@
   </si>
   <si>
     <t>CaliEx2022*</t>
+  </si>
+  <si>
+    <t>Servidor CA</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>EC3071T</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,11 +509,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -545,26 +551,34 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{905FF103-AC4C-4443-B2F1-3EDEDAD71E40}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{5D2E8F0E-E087-44C0-A312-D4C19080BB0F}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{7E605ECA-FE27-4006-8E28-5B824EA94B47}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{7E605ECA-FE27-4006-8E28-5B824EA94B47}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{50F1C015-DA63-49BB-B656-D2EF35271609}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Credenciales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0801DBEC-54A9-4912-AD21-35DB2756F9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E53C180-30E6-4B58-9645-7FDEFB402DEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-870" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,11 +510,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Credenciales/Credenciales.xlsx
+++ b/Credenciales/Credenciales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectsCaliExpress\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1A1A70-9D41-4DEA-B180-7C3FC38C488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF501AA9-310B-4F14-8611-ECCE56BABA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credenciales" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
